--- a/Audio_Spatial_Recognition/Assets/Data/HRTFs.xlsx
+++ b/Audio_Spatial_Recognition/Assets/Data/HRTFs.xlsx
@@ -15,23 +15,75 @@
     <sheet name="HRTFs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">HRTFs!$A$3:$A$92</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">HRTFs!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">HRTFs!$D$3:$D$92</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">HRTFs!$E$3:$E$92</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">HRTFs!$H$1:$H$2</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">HRTFs!$H$3:$H$92</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">HRTFs!$E$3:$E$92</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">HRTFs!$H$1:$H$2</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">HRTFs!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">HRTFs!$I$3:$I$94</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">HRTFs!$L$3:$L$92</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">HRTFs!$P$2</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">HRTFs!$P$3:$P$92</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">HRTFs!$A$3:$A$92</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">HRTFs!$D$2</definedName>
+    <definedName name="_xlchart.v2.15" hidden="1">HRTFs!$D$3:$D$92</definedName>
+    <definedName name="_xlchart.v2.16" hidden="1">HRTFs!$H$2</definedName>
+    <definedName name="_xlchart.v2.17" hidden="1">HRTFs!$H$3:$H$92</definedName>
+    <definedName name="_xlchart.v2.18" hidden="1">HRTFs!$L$2</definedName>
+    <definedName name="_xlchart.v2.19" hidden="1">HRTFs!$L$3:$L$92</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">HRTFs!$L$1:$L$2</definedName>
+    <definedName name="_xlchart.v2.20" hidden="1">HRTFs!$P$2</definedName>
+    <definedName name="_xlchart.v2.21" hidden="1">HRTFs!$P$3:$P$92</definedName>
+    <definedName name="_xlchart.v2.22" hidden="1">HRTFs!$P$3:$P$92</definedName>
+    <definedName name="_xlchart.v2.23" hidden="1">HRTFs!$M$3:$M$92</definedName>
+    <definedName name="_xlchart.v2.24" hidden="1">HRTFs!$P$2</definedName>
+    <definedName name="_xlchart.v2.25" hidden="1">HRTFs!$P$3:$P$92</definedName>
+    <definedName name="_xlchart.v2.26" hidden="1">HRTFs!$I$3:$I$92</definedName>
+    <definedName name="_xlchart.v2.27" hidden="1">HRTFs!$K$2</definedName>
+    <definedName name="_xlchart.v2.28" hidden="1">HRTFs!$K$3:$K$92</definedName>
+    <definedName name="_xlchart.v2.29" hidden="1">HRTFs!$A$3:$A$92</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">HRTFs!$L$3:$L$94</definedName>
+    <definedName name="_xlchart.v2.30" hidden="1">HRTFs!$A$3:$A$92</definedName>
+    <definedName name="_xlchart.v2.31" hidden="1">HRTFs!$A$3:$A$92</definedName>
+    <definedName name="_xlchart.v2.32" hidden="1">HRTFs!$A$3:$A$92</definedName>
+    <definedName name="_xlchart.v2.33" hidden="1">HRTFs!$D$2</definedName>
+    <definedName name="_xlchart.v2.34" hidden="1">HRTFs!$D$3:$D$92</definedName>
+    <definedName name="_xlchart.v2.35" hidden="1">HRTFs!$H$2</definedName>
+    <definedName name="_xlchart.v2.36" hidden="1">HRTFs!$H$3:$H$92</definedName>
+    <definedName name="_xlchart.v2.37" hidden="1">HRTFs!$L$2</definedName>
+    <definedName name="_xlchart.v2.38" hidden="1">HRTFs!$L$3:$L$92</definedName>
+    <definedName name="_xlchart.v2.39" hidden="1">HRTFs!$P$3:$P$92</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">HRTFs!$A$3:$A$92</definedName>
+    <definedName name="_xlchart.v2.40" hidden="1">HRTFs!$P$2</definedName>
+    <definedName name="_xlchart.v2.41" hidden="1">HRTFs!$A$3:$A$92</definedName>
+    <definedName name="_xlchart.v2.42" hidden="1">HRTFs!$A$3:$A$92</definedName>
+    <definedName name="_xlchart.v2.43" hidden="1">HRTFs!$A$3:$A$92</definedName>
+    <definedName name="_xlchart.v2.44" hidden="1">HRTFs!$A$3:$A$92</definedName>
+    <definedName name="_xlchart.v2.45" hidden="1">HRTFs!$D$2</definedName>
+    <definedName name="_xlchart.v2.46" hidden="1">HRTFs!$D$3:$D$92</definedName>
+    <definedName name="_xlchart.v2.47" hidden="1">HRTFs!$H$2</definedName>
+    <definedName name="_xlchart.v2.48" hidden="1">HRTFs!$H$3:$H$92</definedName>
+    <definedName name="_xlchart.v2.49" hidden="1">HRTFs!$L$2</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">HRTFs!$D$2</definedName>
+    <definedName name="_xlchart.v2.50" hidden="1">HRTFs!$L$3:$L$92</definedName>
+    <definedName name="_xlchart.v2.51" hidden="1">HRTFs!$P$3:$P$92</definedName>
+    <definedName name="_xlchart.v2.52" hidden="1">HRTFs!$P$2</definedName>
+    <definedName name="_xlchart.v2.53" hidden="1">HRTFs!$A$3:$A$92</definedName>
+    <definedName name="_xlchart.v2.54" hidden="1">HRTFs!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v2.55" hidden="1">HRTFs!$D$3:$D$92</definedName>
+    <definedName name="_xlchart.v2.56" hidden="1">HRTFs!$E$3:$E$92</definedName>
+    <definedName name="_xlchart.v2.57" hidden="1">HRTFs!$H$1:$H$2</definedName>
+    <definedName name="_xlchart.v2.58" hidden="1">HRTFs!$H$3:$H$92</definedName>
+    <definedName name="_xlchart.v2.59" hidden="1">HRTFs!$I$3:$I$92</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">HRTFs!$D$3:$D$92</definedName>
+    <definedName name="_xlchart.v2.60" hidden="1">HRTFs!$L$2</definedName>
+    <definedName name="_xlchart.v2.61" hidden="1">HRTFs!$L$3:$L$92</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">HRTFs!$H$2</definedName>
     <definedName name="_xlchart.v2.8" hidden="1">HRTFs!$H$3:$H$92</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">HRTFs!$H$3:$H$92</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">HRTFs!$L$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="17">
   <si>
     <t>MS HRTF</t>
   </si>
@@ -76,6 +128,12 @@
   </si>
   <si>
     <t>White_noise</t>
+  </si>
+  <si>
+    <t>Occulus HRTF</t>
+  </si>
+  <si>
+    <t>No HRTF</t>
   </si>
 </sst>
 </file>
@@ -559,8 +617,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -624,10 +685,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.0</cx:f>
+        <cx:f>_xlchart.v2.53</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.2</cx:f>
+        <cx:f>_xlchart.v2.55</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -657,7 +718,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{24801C1D-0E03-4B0A-A6CC-07A0FE475D31}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v2.1</cx:f>
+              <cx:f>_xlchart.v2.54</cx:f>
               <cx:v>Angle Difference</cx:v>
             </cx:txData>
           </cx:tx>
@@ -687,10 +748,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.3</cx:f>
+        <cx:f>_xlchart.v2.56</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.5</cx:f>
+        <cx:f>_xlchart.v2.58</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -720,7 +781,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{579ACB8A-A528-4530-8159-4A34D6C8F980}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v2.4</cx:f>
+              <cx:f>_xlchart.v2.57</cx:f>
               <cx:v>Angle Difference</cx:v>
             </cx:txData>
           </cx:tx>
@@ -737,6 +798,298 @@
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.59</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.61</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Occulus HRTF</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE"/>
+            <a:t>Occulus HRTF</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6BBAC8FF-EB56-40A7-A97B-E32317E8EDDE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.60</cx:f>
+              <cx:v>Angle Difference</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.23</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>No HRTF</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE"/>
+            <a:t>No HRTF</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{39FC0327-180E-46D8-A432-91ED97B12874}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.24</cx:f>
+              <cx:v>Angle Difference</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Winkeldifferenz Vergleich HRTFs</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE"/>
+            <a:t>Winkeldifferenz Vergleich HRTFs</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6D903C67-29C8-484B-941F-5A0989CE66C0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.5</cx:f>
+              <cx:v>Angle Difference</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{EB6131EE-9F38-4465-9220-9F0613742FDD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.7</cx:f>
+              <cx:v>Angle Difference</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{541D94C1-5949-4427-98B0-CB4DB0543BB6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.9</cx:f>
+              <cx:v>Angle Difference</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2F1823B6-0880-47DA-BCCA-C48A69258B41}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.11</cx:f>
+              <cx:v>Angle Difference</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Name des Audio Files</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE"/>
+                <a:t>Name des Audio Files</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Winkeldifferenz in Grad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE"/>
+                <a:t>Winkeldifferenz in Grad</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -825,6 +1178,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -1855,20 +2328,1565 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1898,7 +3916,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6858000" y="300037"/>
+              <a:off x="13487400" y="376237"/>
               <a:ext cx="6343650" cy="3548063"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1931,16 +3949,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1970,8 +3988,224 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6857999" y="3833811"/>
+              <a:off x="13325474" y="4243386"/>
               <a:ext cx="6353175" cy="3471863"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>376236</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Diagramm 5"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13330236" y="7805737"/>
+              <a:ext cx="6329363" cy="3576638"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>376236</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Diagramm 6"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13330236" y="11444286"/>
+              <a:ext cx="6310313" cy="3814763"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>366711</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Diagramm 7"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13320711" y="15368587"/>
+              <a:ext cx="9539289" cy="6643688"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2301,23 +4535,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="I79" workbookViewId="0">
+      <selection activeCell="P2" activeCellId="4" sqref="A2:A92 D2:D92 H2:H92 L2:L92 P2:P92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2342,8 +4588,32 @@
       <c r="H2" t="s">
         <v>5</v>
       </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2368,8 +4638,32 @@
       <c r="H3">
         <v>1.805374</v>
       </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>332.00009999999997</v>
+      </c>
+      <c r="K3">
+        <v>334.54739999999998</v>
+      </c>
+      <c r="L3">
+        <v>-2.5473330000000001</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>316</v>
+      </c>
+      <c r="O3">
+        <v>316.95139999999998</v>
+      </c>
+      <c r="P3">
+        <v>-0.9513855</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2394,8 +4688,32 @@
       <c r="H4">
         <v>1.998688</v>
       </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>92.999970000000005</v>
+      </c>
+      <c r="K4">
+        <v>95.501369999999994</v>
+      </c>
+      <c r="L4">
+        <v>-2.5013960000000002</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>223</v>
+      </c>
+      <c r="O4">
+        <v>223.61160000000001</v>
+      </c>
+      <c r="P4">
+        <v>-0.61163330000000005</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2420,8 +4738,32 @@
       <c r="H5">
         <v>4.0392150000000004</v>
       </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>179</v>
+      </c>
+      <c r="K5">
+        <v>178.55619999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.44378659999999998</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>74.999939999999995</v>
+      </c>
+      <c r="O5">
+        <v>75.568820000000002</v>
+      </c>
+      <c r="P5">
+        <v>-0.5688782</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2446,8 +4788,32 @@
       <c r="H6">
         <v>1.7594449999999999</v>
       </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>142.99979999999999</v>
+      </c>
+      <c r="K6">
+        <v>142.3066</v>
+      </c>
+      <c r="L6">
+        <v>0.69320680000000001</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>45</v>
+      </c>
+      <c r="O6">
+        <v>44.85774</v>
+      </c>
+      <c r="P6">
+        <v>0.14226530000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2472,8 +4838,32 @@
       <c r="H7">
         <v>2.7081300000000001</v>
       </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>98.999960000000002</v>
+      </c>
+      <c r="K7">
+        <v>92.869669999999999</v>
+      </c>
+      <c r="L7">
+        <v>6.130287</v>
+      </c>
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>85.000020000000006</v>
+      </c>
+      <c r="O7">
+        <v>83.121639999999999</v>
+      </c>
+      <c r="P7">
+        <v>1.8783799999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2498,8 +4888,32 @@
       <c r="H8">
         <v>2.7386469999999998</v>
       </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>26.999939999999999</v>
+      </c>
+      <c r="K8">
+        <v>28.4252</v>
+      </c>
+      <c r="L8">
+        <v>-1.425257</v>
+      </c>
+      <c r="M8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>271</v>
+      </c>
+      <c r="O8">
+        <v>271.77910000000003</v>
+      </c>
+      <c r="P8">
+        <v>-0.77908330000000003</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2524,8 +4938,32 @@
       <c r="H9">
         <v>1.9594419999999999</v>
       </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>296.99990000000003</v>
+      </c>
+      <c r="K9">
+        <v>289.94240000000002</v>
+      </c>
+      <c r="L9">
+        <v>7.0575260000000002</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>253</v>
+      </c>
+      <c r="O9">
+        <v>253.4761</v>
+      </c>
+      <c r="P9">
+        <v>-0.4760742</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2550,8 +4988,32 @@
       <c r="H10">
         <v>2.1216430000000002</v>
       </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>110.9999</v>
+      </c>
+      <c r="K10">
+        <v>107.15179999999999</v>
+      </c>
+      <c r="L10">
+        <v>3.8481450000000001</v>
+      </c>
+      <c r="M10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>267</v>
+      </c>
+      <c r="O10">
+        <v>266.04669999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.95330809999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2576,8 +5038,32 @@
       <c r="H11">
         <v>3.2281339999999998</v>
       </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>48.999949999999998</v>
+      </c>
+      <c r="K11">
+        <v>45.419710000000002</v>
+      </c>
+      <c r="L11">
+        <v>3.5802350000000001</v>
+      </c>
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>334.99990000000003</v>
+      </c>
+      <c r="O11">
+        <v>335.37099999999998</v>
+      </c>
+      <c r="P11">
+        <v>-0.37103269999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2602,8 +5088,32 @@
       <c r="H12">
         <v>3.2088009999999998</v>
       </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>30.999980000000001</v>
+      </c>
+      <c r="K12">
+        <v>26.55078</v>
+      </c>
+      <c r="L12">
+        <v>4.4491959999999997</v>
+      </c>
+      <c r="M12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>56.999879999999997</v>
+      </c>
+      <c r="O12">
+        <v>56.36318</v>
+      </c>
+      <c r="P12">
+        <v>0.63670349999999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2628,8 +5138,32 @@
       <c r="H13">
         <v>64.314800000000005</v>
       </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>189</v>
+      </c>
+      <c r="K13">
+        <v>180.499</v>
+      </c>
+      <c r="L13">
+        <v>8.5010069999999995</v>
+      </c>
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>166.9999</v>
+      </c>
+      <c r="O13">
+        <v>166.15539999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.8445435</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2654,8 +5188,32 @@
       <c r="H14">
         <v>73.328890000000001</v>
       </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>33.192570000000003</v>
+      </c>
+      <c r="L14">
+        <v>-2.1925720000000002</v>
+      </c>
+      <c r="M14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>71</v>
+      </c>
+      <c r="O14">
+        <v>71.177430000000001</v>
+      </c>
+      <c r="P14">
+        <v>-0.17742920000000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2680,8 +5238,32 @@
       <c r="H15">
         <v>67.784000000000006</v>
       </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>3.0000079999999998</v>
+      </c>
+      <c r="K15">
+        <v>5.2830510000000004</v>
+      </c>
+      <c r="L15">
+        <v>-2.2830430000000002</v>
+      </c>
+      <c r="M15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <v>146.99979999999999</v>
+      </c>
+      <c r="O15">
+        <v>147.2516</v>
+      </c>
+      <c r="P15">
+        <v>-0.2517548</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2706,8 +5288,32 @@
       <c r="H16">
         <v>72.434479999999994</v>
       </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>102.9999</v>
+      </c>
+      <c r="K16">
+        <v>106.0389</v>
+      </c>
+      <c r="L16">
+        <v>-3.03904</v>
+      </c>
+      <c r="M16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <v>217.0001</v>
+      </c>
+      <c r="O16">
+        <v>216.3793</v>
+      </c>
+      <c r="P16">
+        <v>0.62074280000000004</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2732,8 +5338,32 @@
       <c r="H17">
         <v>144.48269999999999</v>
       </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>355</v>
+      </c>
+      <c r="K17">
+        <v>348.65789999999998</v>
+      </c>
+      <c r="L17">
+        <v>6.3421329999999996</v>
+      </c>
+      <c r="M17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>105.0003</v>
+      </c>
+      <c r="O17">
+        <v>105.4542</v>
+      </c>
+      <c r="P17">
+        <v>-0.4539261</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2758,8 +5388,32 @@
       <c r="H18">
         <v>24.9985</v>
       </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>56.999890000000001</v>
+      </c>
+      <c r="K18">
+        <v>58.445430000000002</v>
+      </c>
+      <c r="L18">
+        <v>-1.4455450000000001</v>
+      </c>
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>118.9999</v>
+      </c>
+      <c r="O18">
+        <v>118.1537</v>
+      </c>
+      <c r="P18">
+        <v>0.84621429999999997</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2784,8 +5438,32 @@
       <c r="H19">
         <v>66.220889999999997</v>
       </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>295</v>
+      </c>
+      <c r="K19">
+        <v>288.68599999999998</v>
+      </c>
+      <c r="L19">
+        <v>6.3139649999999996</v>
+      </c>
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>290.99970000000002</v>
+      </c>
+      <c r="O19">
+        <v>290.99259999999998</v>
+      </c>
+      <c r="P19">
+        <v>7.1411130000000001E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2810,8 +5488,32 @@
       <c r="H20">
         <v>-59.2209</v>
       </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>93.000010000000003</v>
+      </c>
+      <c r="K20">
+        <v>97.09984</v>
+      </c>
+      <c r="L20">
+        <v>-4.099831</v>
+      </c>
+      <c r="M20" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <v>29</v>
+      </c>
+      <c r="O20">
+        <v>29.900020000000001</v>
+      </c>
+      <c r="P20">
+        <v>-0.90001299999999995</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2836,8 +5538,32 @@
       <c r="H21">
         <v>167.66319999999999</v>
       </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>78.999939999999995</v>
+      </c>
+      <c r="K21">
+        <v>81.067490000000006</v>
+      </c>
+      <c r="L21">
+        <v>-2.0675509999999999</v>
+      </c>
+      <c r="M21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <v>5.0000799999999996</v>
+      </c>
+      <c r="O21">
+        <v>5.5609270000000004</v>
+      </c>
+      <c r="P21">
+        <v>-0.56084730000000005</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2862,8 +5588,32 @@
       <c r="H22">
         <v>-172.51740000000001</v>
       </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>157</v>
+      </c>
+      <c r="K22">
+        <v>159.04050000000001</v>
+      </c>
+      <c r="L22">
+        <v>-2.0405579999999999</v>
+      </c>
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>351</v>
+      </c>
+      <c r="O22">
+        <v>350.77409999999998</v>
+      </c>
+      <c r="P22">
+        <v>0.22586059999999999</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2888,8 +5638,32 @@
       <c r="H23">
         <v>-3.438599</v>
       </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>46.999879999999997</v>
+      </c>
+      <c r="K23">
+        <v>50.211129999999997</v>
+      </c>
+      <c r="L23">
+        <v>-3.2112500000000002</v>
+      </c>
+      <c r="M23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>105</v>
+      </c>
+      <c r="O23">
+        <v>106.455</v>
+      </c>
+      <c r="P23">
+        <v>-1.4549479999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2914,8 +5688,32 @@
       <c r="H24">
         <v>-2.6156459999999999</v>
       </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>143</v>
+      </c>
+      <c r="K24">
+        <v>148.1018</v>
+      </c>
+      <c r="L24">
+        <v>-5.1017910000000004</v>
+      </c>
+      <c r="M24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24">
+        <v>87.000020000000006</v>
+      </c>
+      <c r="O24">
+        <v>86.93929</v>
+      </c>
+      <c r="P24">
+        <v>6.0722350000000001E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2940,8 +5738,32 @@
       <c r="H25">
         <v>-3.990059</v>
       </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>5.0000270000000002</v>
+      </c>
+      <c r="K25">
+        <v>8.1787639999999993</v>
+      </c>
+      <c r="L25">
+        <v>-3.1787380000000001</v>
+      </c>
+      <c r="M25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>322.99979999999999</v>
+      </c>
+      <c r="O25">
+        <v>322.24290000000002</v>
+      </c>
+      <c r="P25">
+        <v>0.75695800000000002</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2966,8 +5788,32 @@
       <c r="H26">
         <v>-4.0515749999999997</v>
       </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>219.00020000000001</v>
+      </c>
+      <c r="K26">
+        <v>210.7174</v>
+      </c>
+      <c r="L26">
+        <v>8.2827909999999996</v>
+      </c>
+      <c r="M26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26">
+        <v>254.99969999999999</v>
+      </c>
+      <c r="O26">
+        <v>254.27889999999999</v>
+      </c>
+      <c r="P26">
+        <v>0.72073359999999997</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2992,8 +5838,32 @@
       <c r="H27">
         <v>-2.9139249999999999</v>
       </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>164.9999</v>
+      </c>
+      <c r="K27">
+        <v>168.2893</v>
+      </c>
+      <c r="L27">
+        <v>-3.2893979999999998</v>
+      </c>
+      <c r="M27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27">
+        <v>292.99990000000003</v>
+      </c>
+      <c r="O27">
+        <v>292.39830000000001</v>
+      </c>
+      <c r="P27">
+        <v>0.6015625</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -3018,8 +5888,32 @@
       <c r="H28">
         <v>-4.9791259999999999</v>
       </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>290.99979999999999</v>
+      </c>
+      <c r="K28">
+        <v>284.02690000000001</v>
+      </c>
+      <c r="L28">
+        <v>6.972931</v>
+      </c>
+      <c r="M28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28">
+        <v>1.000011</v>
+      </c>
+      <c r="O28">
+        <v>0.32010559999999999</v>
+      </c>
+      <c r="P28">
+        <v>0.67990490000000003</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -3044,8 +5938,32 @@
       <c r="H29">
         <v>-2.5003359999999999</v>
       </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>11.00006</v>
+      </c>
+      <c r="K29">
+        <v>14.88364</v>
+      </c>
+      <c r="L29">
+        <v>-3.8835809999999999</v>
+      </c>
+      <c r="M29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <v>15.00027</v>
+      </c>
+      <c r="O29">
+        <v>15.379569999999999</v>
+      </c>
+      <c r="P29">
+        <v>-0.37930580000000003</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -3070,8 +5988,32 @@
       <c r="H30">
         <v>-3.3423769999999999</v>
       </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>281.00009999999997</v>
+      </c>
+      <c r="K30">
+        <v>273.15769999999998</v>
+      </c>
+      <c r="L30">
+        <v>7.8424069999999997</v>
+      </c>
+      <c r="M30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30">
+        <v>115</v>
+      </c>
+      <c r="O30">
+        <v>113.2081</v>
+      </c>
+      <c r="P30">
+        <v>1.7919389999999999</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3096,8 +6038,32 @@
       <c r="H31">
         <v>-3.4806979999999998</v>
       </c>
+      <c r="I31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>88.999989999999997</v>
+      </c>
+      <c r="K31">
+        <v>92.454769999999996</v>
+      </c>
+      <c r="L31">
+        <v>-3.4547729999999999</v>
+      </c>
+      <c r="M31" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31">
+        <v>357</v>
+      </c>
+      <c r="O31">
+        <v>357.35840000000002</v>
+      </c>
+      <c r="P31">
+        <v>-0.358429</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -3122,8 +6088,32 @@
       <c r="H32">
         <v>-2.62677</v>
       </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>173</v>
+      </c>
+      <c r="K32">
+        <v>174.87289999999999</v>
+      </c>
+      <c r="L32">
+        <v>-1.872879</v>
+      </c>
+      <c r="M32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32">
+        <v>87.000020000000006</v>
+      </c>
+      <c r="O32">
+        <v>86.927570000000003</v>
+      </c>
+      <c r="P32">
+        <v>7.2441099999999994E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -3148,8 +6138,32 @@
       <c r="H33">
         <v>13.910679999999999</v>
       </c>
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>269</v>
+      </c>
+      <c r="K33">
+        <v>267.899</v>
+      </c>
+      <c r="L33">
+        <v>1.101013</v>
+      </c>
+      <c r="M33" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33">
+        <v>301.00009999999997</v>
+      </c>
+      <c r="O33">
+        <v>300.22550000000001</v>
+      </c>
+      <c r="P33">
+        <v>0.77456670000000005</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3174,8 +6188,32 @@
       <c r="H34">
         <v>12.2851</v>
       </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <v>113</v>
+      </c>
+      <c r="K34">
+        <v>109.7354</v>
+      </c>
+      <c r="L34">
+        <v>3.2646099999999998</v>
+      </c>
+      <c r="M34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34">
+        <v>251</v>
+      </c>
+      <c r="O34">
+        <v>251.1883</v>
+      </c>
+      <c r="P34">
+        <v>-0.1882935</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3200,8 +6238,32 @@
       <c r="H35">
         <v>11.893800000000001</v>
       </c>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35">
+        <v>254.9999</v>
+      </c>
+      <c r="K35">
+        <v>253.27430000000001</v>
+      </c>
+      <c r="L35">
+        <v>1.7256320000000001</v>
+      </c>
+      <c r="M35" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35">
+        <v>353</v>
+      </c>
+      <c r="O35">
+        <v>353.3587</v>
+      </c>
+      <c r="P35">
+        <v>-0.35864259999999998</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3226,8 +6288,32 @@
       <c r="H36">
         <v>11.760210000000001</v>
       </c>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <v>193</v>
+      </c>
+      <c r="K36">
+        <v>189.726</v>
+      </c>
+      <c r="L36">
+        <v>3.2740330000000002</v>
+      </c>
+      <c r="M36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36">
+        <v>5.0000210000000003</v>
+      </c>
+      <c r="O36">
+        <v>4.6982439999999999</v>
+      </c>
+      <c r="P36">
+        <v>0.30177779999999998</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3252,8 +6338,32 @@
       <c r="H37">
         <v>11.57986</v>
       </c>
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37">
+        <v>311</v>
+      </c>
+      <c r="K37">
+        <v>309.15879999999999</v>
+      </c>
+      <c r="L37">
+        <v>1.841156</v>
+      </c>
+      <c r="M37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37">
+        <v>265</v>
+      </c>
+      <c r="O37">
+        <v>264.71980000000002</v>
+      </c>
+      <c r="P37">
+        <v>0.28015139999999999</v>
+      </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -3278,8 +6388,32 @@
       <c r="H38">
         <v>13.29082</v>
       </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38">
+        <v>179</v>
+      </c>
+      <c r="K38">
+        <v>177.40270000000001</v>
+      </c>
+      <c r="L38">
+        <v>1.5972599999999999</v>
+      </c>
+      <c r="M38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N38">
+        <v>139</v>
+      </c>
+      <c r="O38">
+        <v>138.75149999999999</v>
+      </c>
+      <c r="P38">
+        <v>0.24845890000000001</v>
+      </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -3304,8 +6438,32 @@
       <c r="H39">
         <v>12.460039999999999</v>
       </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <v>48.999989999999997</v>
+      </c>
+      <c r="K39">
+        <v>46.451659999999997</v>
+      </c>
+      <c r="L39">
+        <v>2.5483280000000001</v>
+      </c>
+      <c r="M39" t="s">
+        <v>9</v>
+      </c>
+      <c r="N39">
+        <v>83.000140000000002</v>
+      </c>
+      <c r="O39">
+        <v>81.303299999999993</v>
+      </c>
+      <c r="P39">
+        <v>1.6968460000000001</v>
+      </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3330,8 +6488,32 @@
       <c r="H40">
         <v>12.39635</v>
       </c>
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <v>290.99970000000002</v>
+      </c>
+      <c r="K40">
+        <v>287.92959999999999</v>
+      </c>
+      <c r="L40">
+        <v>3.070068</v>
+      </c>
+      <c r="M40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40">
+        <v>211</v>
+      </c>
+      <c r="O40">
+        <v>211.61920000000001</v>
+      </c>
+      <c r="P40">
+        <v>-0.61923220000000001</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -3356,8 +6538,32 @@
       <c r="H41">
         <v>12.73602</v>
       </c>
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41">
+        <v>335.00020000000001</v>
+      </c>
+      <c r="K41">
+        <v>331.09089999999998</v>
+      </c>
+      <c r="L41">
+        <v>3.9093019999999998</v>
+      </c>
+      <c r="M41" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41">
+        <v>236.9999</v>
+      </c>
+      <c r="O41">
+        <v>236.29740000000001</v>
+      </c>
+      <c r="P41">
+        <v>0.70248409999999994</v>
+      </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3382,8 +6588,32 @@
       <c r="H42">
         <v>11.87505</v>
       </c>
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <v>31</v>
+      </c>
+      <c r="K42">
+        <v>28.733930000000001</v>
+      </c>
+      <c r="L42">
+        <v>2.2660710000000002</v>
+      </c>
+      <c r="M42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42">
+        <v>193.0001</v>
+      </c>
+      <c r="O42">
+        <v>194.29079999999999</v>
+      </c>
+      <c r="P42">
+        <v>-1.29071</v>
+      </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -3408,8 +6638,32 @@
       <c r="H43">
         <v>-7.8335150000000002</v>
       </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>5.0000169999999997</v>
+      </c>
+      <c r="K43">
+        <v>7.3674489999999997</v>
+      </c>
+      <c r="L43">
+        <v>-2.367432</v>
+      </c>
+      <c r="M43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>159</v>
+      </c>
+      <c r="O43">
+        <v>157.46770000000001</v>
+      </c>
+      <c r="P43">
+        <v>1.5322880000000001</v>
+      </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -3434,8 +6688,32 @@
       <c r="H44">
         <v>-6.1118319999999997</v>
       </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>31</v>
+      </c>
+      <c r="K44">
+        <v>32.823030000000003</v>
+      </c>
+      <c r="L44">
+        <v>-1.823027</v>
+      </c>
+      <c r="M44" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44">
+        <v>56.99982</v>
+      </c>
+      <c r="O44">
+        <v>57.962589999999999</v>
+      </c>
+      <c r="P44">
+        <v>-0.96276090000000003</v>
+      </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -3460,8 +6738,32 @@
       <c r="H45">
         <v>-6.5940859999999999</v>
       </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>115</v>
+      </c>
+      <c r="K45">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="L45">
+        <v>-1.2249680000000001</v>
+      </c>
+      <c r="M45" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45">
+        <v>163</v>
+      </c>
+      <c r="O45">
+        <v>162.9666</v>
+      </c>
+      <c r="P45">
+        <v>3.3432009999999998E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -3486,8 +6788,32 @@
       <c r="H46">
         <v>-8.5427859999999995</v>
       </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>121.0001</v>
+      </c>
+      <c r="K46">
+        <v>122.76300000000001</v>
+      </c>
+      <c r="L46">
+        <v>-1.7628710000000001</v>
+      </c>
+      <c r="M46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46">
+        <v>6.999962</v>
+      </c>
+      <c r="O46">
+        <v>6.126595</v>
+      </c>
+      <c r="P46">
+        <v>0.8733668</v>
+      </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3512,8 +6838,32 @@
       <c r="H47">
         <v>-7.8697739999999996</v>
       </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>50.999870000000001</v>
+      </c>
+      <c r="K47">
+        <v>52.070740000000001</v>
+      </c>
+      <c r="L47">
+        <v>-1.070862</v>
+      </c>
+      <c r="M47" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47">
+        <v>179</v>
+      </c>
+      <c r="O47">
+        <v>179.99940000000001</v>
+      </c>
+      <c r="P47">
+        <v>-0.99942019999999998</v>
+      </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3538,8 +6888,32 @@
       <c r="H48">
         <v>-8.2099759999999993</v>
       </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>241.0001</v>
+      </c>
+      <c r="K48">
+        <v>233.3716</v>
+      </c>
+      <c r="L48">
+        <v>7.6284179999999999</v>
+      </c>
+      <c r="M48" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48">
+        <v>61.000059999999998</v>
+      </c>
+      <c r="O48">
+        <v>60.942369999999997</v>
+      </c>
+      <c r="P48">
+        <v>5.7685849999999997E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -3564,8 +6938,32 @@
       <c r="H49">
         <v>-7.74979</v>
       </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>327</v>
+      </c>
+      <c r="K49">
+        <v>320.4316</v>
+      </c>
+      <c r="L49">
+        <v>6.5683590000000001</v>
+      </c>
+      <c r="M49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49">
+        <v>320.99979999999999</v>
+      </c>
+      <c r="O49">
+        <v>320.17919999999998</v>
+      </c>
+      <c r="P49">
+        <v>0.82061770000000001</v>
+      </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3590,8 +6988,32 @@
       <c r="H50">
         <v>-7.3560790000000003</v>
       </c>
+      <c r="I50" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>269</v>
+      </c>
+      <c r="K50">
+        <v>261.72449999999998</v>
+      </c>
+      <c r="L50">
+        <v>7.2754820000000002</v>
+      </c>
+      <c r="M50" t="s">
+        <v>10</v>
+      </c>
+      <c r="N50">
+        <v>206.99979999999999</v>
+      </c>
+      <c r="O50">
+        <v>206.09460000000001</v>
+      </c>
+      <c r="P50">
+        <v>0.90524289999999996</v>
+      </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -3616,8 +7038,32 @@
       <c r="H51">
         <v>-7.9387509999999999</v>
       </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>287</v>
+      </c>
+      <c r="K51">
+        <v>280.56540000000001</v>
+      </c>
+      <c r="L51">
+        <v>6.4345699999999999</v>
+      </c>
+      <c r="M51" t="s">
+        <v>10</v>
+      </c>
+      <c r="N51">
+        <v>233.0001</v>
+      </c>
+      <c r="O51">
+        <v>233.27019999999999</v>
+      </c>
+      <c r="P51">
+        <v>-0.2700958</v>
+      </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -3642,8 +7088,32 @@
       <c r="H52">
         <v>-6.528473</v>
       </c>
+      <c r="I52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <v>355</v>
+      </c>
+      <c r="K52">
+        <v>193.06890000000001</v>
+      </c>
+      <c r="L52">
+        <v>161.93100000000001</v>
+      </c>
+      <c r="M52" t="s">
+        <v>10</v>
+      </c>
+      <c r="N52">
+        <v>334.99990000000003</v>
+      </c>
+      <c r="O52">
+        <v>335.803</v>
+      </c>
+      <c r="P52">
+        <v>-0.80310060000000005</v>
+      </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -3668,8 +7138,32 @@
       <c r="H53">
         <v>-7.1690060000000004</v>
       </c>
+      <c r="I53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53">
+        <v>304.99990000000003</v>
+      </c>
+      <c r="K53">
+        <v>298.05090000000001</v>
+      </c>
+      <c r="L53">
+        <v>6.9490660000000002</v>
+      </c>
+      <c r="M53" t="s">
+        <v>11</v>
+      </c>
+      <c r="N53">
+        <v>111</v>
+      </c>
+      <c r="O53">
+        <v>111.7792</v>
+      </c>
+      <c r="P53">
+        <v>-0.7791595</v>
+      </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -3694,8 +7188,32 @@
       <c r="H54">
         <v>-7.7464899999999997</v>
       </c>
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54">
+        <v>348.99990000000003</v>
+      </c>
+      <c r="K54">
+        <v>177.56739999999999</v>
+      </c>
+      <c r="L54">
+        <v>171.4325</v>
+      </c>
+      <c r="M54" t="s">
+        <v>11</v>
+      </c>
+      <c r="N54">
+        <v>265</v>
+      </c>
+      <c r="O54">
+        <v>264.60359999999997</v>
+      </c>
+      <c r="P54">
+        <v>0.3963623</v>
+      </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -3720,8 +7238,32 @@
       <c r="H55">
         <v>-7.2937010000000004</v>
       </c>
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55">
+        <v>304.99990000000003</v>
+      </c>
+      <c r="K55">
+        <v>297.94670000000002</v>
+      </c>
+      <c r="L55">
+        <v>7.053223</v>
+      </c>
+      <c r="M55" t="s">
+        <v>11</v>
+      </c>
+      <c r="N55">
+        <v>15.00028</v>
+      </c>
+      <c r="O55">
+        <v>15.784560000000001</v>
+      </c>
+      <c r="P55">
+        <v>-0.7842884</v>
+      </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -3746,8 +7288,32 @@
       <c r="H56">
         <v>-6.1896740000000001</v>
       </c>
+      <c r="I56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56">
+        <v>109</v>
+      </c>
+      <c r="K56">
+        <v>111.6121</v>
+      </c>
+      <c r="L56">
+        <v>-2.6120450000000002</v>
+      </c>
+      <c r="M56" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56">
+        <v>61.000059999999998</v>
+      </c>
+      <c r="O56">
+        <v>61.606319999999997</v>
+      </c>
+      <c r="P56">
+        <v>-0.60626219999999997</v>
+      </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -3772,8 +7338,32 @@
       <c r="H57">
         <v>-8.1268770000000004</v>
       </c>
+      <c r="I57" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57">
+        <v>296.99990000000003</v>
+      </c>
+      <c r="K57">
+        <v>291.0498</v>
+      </c>
+      <c r="L57">
+        <v>5.9501340000000003</v>
+      </c>
+      <c r="M57" t="s">
+        <v>11</v>
+      </c>
+      <c r="N57">
+        <v>63.000010000000003</v>
+      </c>
+      <c r="O57">
+        <v>63.476080000000003</v>
+      </c>
+      <c r="P57">
+        <v>-0.4760704</v>
+      </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -3798,8 +7388,32 @@
       <c r="H58">
         <v>-8.1464689999999997</v>
       </c>
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58">
+        <v>298.99990000000003</v>
+      </c>
+      <c r="K58">
+        <v>291.98270000000002</v>
+      </c>
+      <c r="L58">
+        <v>7.0172119999999998</v>
+      </c>
+      <c r="M58" t="s">
+        <v>11</v>
+      </c>
+      <c r="N58">
+        <v>351</v>
+      </c>
+      <c r="O58">
+        <v>352.66019999999997</v>
+      </c>
+      <c r="P58">
+        <v>-1.6602170000000001</v>
+      </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -3824,8 +7438,32 @@
       <c r="H59">
         <v>-7.7186349999999999</v>
       </c>
+      <c r="I59" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59">
+        <v>249</v>
+      </c>
+      <c r="K59">
+        <v>240.47380000000001</v>
+      </c>
+      <c r="L59">
+        <v>8.5262449999999994</v>
+      </c>
+      <c r="M59" t="s">
+        <v>11</v>
+      </c>
+      <c r="N59">
+        <v>263</v>
+      </c>
+      <c r="O59">
+        <v>262.74209999999999</v>
+      </c>
+      <c r="P59">
+        <v>0.25793460000000001</v>
+      </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -3850,8 +7488,32 @@
       <c r="H60">
         <v>-6.3495790000000003</v>
       </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60">
+        <v>353</v>
+      </c>
+      <c r="K60">
+        <v>344.85759999999999</v>
+      </c>
+      <c r="L60">
+        <v>8.1423649999999999</v>
+      </c>
+      <c r="M60" t="s">
+        <v>11</v>
+      </c>
+      <c r="N60">
+        <v>348.99990000000003</v>
+      </c>
+      <c r="O60">
+        <v>350.07940000000002</v>
+      </c>
+      <c r="P60">
+        <v>-1.0794980000000001</v>
+      </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -3876,8 +7538,32 @@
       <c r="H61">
         <v>-6.6175459999999999</v>
       </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61">
+        <v>306.99990000000003</v>
+      </c>
+      <c r="K61">
+        <v>297.91460000000001</v>
+      </c>
+      <c r="L61">
+        <v>9.085388</v>
+      </c>
+      <c r="M61" t="s">
+        <v>11</v>
+      </c>
+      <c r="N61">
+        <v>98.999859999999998</v>
+      </c>
+      <c r="O61">
+        <v>98.510419999999996</v>
+      </c>
+      <c r="P61">
+        <v>0.48943330000000002</v>
+      </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -3902,8 +7588,32 @@
       <c r="H62">
         <v>-8.4031450000000003</v>
       </c>
+      <c r="I62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62">
+        <v>140.99979999999999</v>
+      </c>
+      <c r="K62">
+        <v>143.4828</v>
+      </c>
+      <c r="L62">
+        <v>-2.4830169999999998</v>
+      </c>
+      <c r="M62" t="s">
+        <v>11</v>
+      </c>
+      <c r="N62">
+        <v>206.99979999999999</v>
+      </c>
+      <c r="O62">
+        <v>206.13229999999999</v>
+      </c>
+      <c r="P62">
+        <v>0.86755369999999998</v>
+      </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -3928,8 +7638,32 @@
       <c r="H63">
         <v>4.1195979999999999</v>
       </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63">
+        <v>299</v>
+      </c>
+      <c r="K63">
+        <v>293.88029999999998</v>
+      </c>
+      <c r="L63">
+        <v>5.11972</v>
+      </c>
+      <c r="M63" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63">
+        <v>18.999970000000001</v>
+      </c>
+      <c r="O63">
+        <v>19.276979999999998</v>
+      </c>
+      <c r="P63">
+        <v>-0.27700609999999998</v>
+      </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3954,8 +7688,32 @@
       <c r="H64">
         <v>2.539749</v>
       </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64">
+        <v>344.99990000000003</v>
+      </c>
+      <c r="K64">
+        <v>346.74259999999998</v>
+      </c>
+      <c r="L64">
+        <v>-1.7426759999999999</v>
+      </c>
+      <c r="M64" t="s">
+        <v>12</v>
+      </c>
+      <c r="N64">
+        <v>342.99979999999999</v>
+      </c>
+      <c r="O64">
+        <v>343.2371</v>
+      </c>
+      <c r="P64">
+        <v>-0.23721310000000001</v>
+      </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3980,8 +7738,32 @@
       <c r="H65">
         <v>4.9862979999999997</v>
       </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65">
+        <v>357</v>
+      </c>
+      <c r="K65">
+        <v>358.90390000000002</v>
+      </c>
+      <c r="L65">
+        <v>-1.9038999999999999</v>
+      </c>
+      <c r="M65" t="s">
+        <v>12</v>
+      </c>
+      <c r="N65">
+        <v>77.000110000000006</v>
+      </c>
+      <c r="O65">
+        <v>76.271900000000002</v>
+      </c>
+      <c r="P65">
+        <v>0.72820280000000004</v>
+      </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -4006,8 +7788,32 @@
       <c r="H66">
         <v>4.2221679999999999</v>
       </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66">
+        <v>41.000160000000001</v>
+      </c>
+      <c r="K66">
+        <v>30.998660000000001</v>
+      </c>
+      <c r="L66">
+        <v>10.00151</v>
+      </c>
+      <c r="M66" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66">
+        <v>121.00020000000001</v>
+      </c>
+      <c r="O66">
+        <v>121.5894</v>
+      </c>
+      <c r="P66">
+        <v>-0.58921809999999997</v>
+      </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -4032,8 +7838,32 @@
       <c r="H67">
         <v>4.04129</v>
       </c>
+      <c r="I67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67">
+        <v>183</v>
+      </c>
+      <c r="K67">
+        <v>177.1669</v>
+      </c>
+      <c r="L67">
+        <v>5.8331150000000003</v>
+      </c>
+      <c r="M67" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67">
+        <v>275</v>
+      </c>
+      <c r="O67">
+        <v>273.22489999999999</v>
+      </c>
+      <c r="P67">
+        <v>1.775055</v>
+      </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -4058,8 +7888,32 @@
       <c r="H68">
         <v>4.7185670000000002</v>
       </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68">
+        <v>92.999970000000005</v>
+      </c>
+      <c r="K68">
+        <v>96.18974</v>
+      </c>
+      <c r="L68">
+        <v>-3.1897660000000001</v>
+      </c>
+      <c r="M68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68">
+        <v>352</v>
+      </c>
+      <c r="O68">
+        <v>351.57069999999999</v>
+      </c>
+      <c r="P68">
+        <v>0.42929079999999997</v>
+      </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -4084,8 +7938,32 @@
       <c r="H69">
         <v>4.3504639999999997</v>
       </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69">
+        <v>177</v>
+      </c>
+      <c r="K69">
+        <v>171.40819999999999</v>
+      </c>
+      <c r="L69">
+        <v>5.5917510000000004</v>
+      </c>
+      <c r="M69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69">
+        <v>263</v>
+      </c>
+      <c r="O69">
+        <v>262.66390000000001</v>
+      </c>
+      <c r="P69">
+        <v>0.33615109999999998</v>
+      </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -4110,8 +7988,32 @@
       <c r="H70">
         <v>4.1226039999999999</v>
       </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70">
+        <v>257.00009999999997</v>
+      </c>
+      <c r="K70">
+        <v>251.31290000000001</v>
+      </c>
+      <c r="L70">
+        <v>5.6872559999999996</v>
+      </c>
+      <c r="M70" t="s">
+        <v>12</v>
+      </c>
+      <c r="N70">
+        <v>203.0001</v>
+      </c>
+      <c r="O70">
+        <v>204.2304</v>
+      </c>
+      <c r="P70">
+        <v>-1.2303010000000001</v>
+      </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -4136,8 +8038,32 @@
       <c r="H71">
         <v>2.552416</v>
       </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71">
+        <v>208.9999</v>
+      </c>
+      <c r="K71">
+        <v>209.65950000000001</v>
+      </c>
+      <c r="L71">
+        <v>-0.65957639999999995</v>
+      </c>
+      <c r="M71" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71">
+        <v>113</v>
+      </c>
+      <c r="O71">
+        <v>112.88</v>
+      </c>
+      <c r="P71">
+        <v>0.120018</v>
+      </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -4162,8 +8088,32 @@
       <c r="H72">
         <v>4.3583980000000002</v>
       </c>
+      <c r="I72" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72">
+        <v>292.99990000000003</v>
+      </c>
+      <c r="K72">
+        <v>284.70909999999998</v>
+      </c>
+      <c r="L72">
+        <v>8.2908019999999993</v>
+      </c>
+      <c r="M72" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72">
+        <v>123.00020000000001</v>
+      </c>
+      <c r="O72">
+        <v>122.9657</v>
+      </c>
+      <c r="P72">
+        <v>3.4423830000000002E-2</v>
+      </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -4188,8 +8138,32 @@
       <c r="H73">
         <v>-2.0239720000000001</v>
       </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73">
+        <v>149.0001</v>
+      </c>
+      <c r="K73">
+        <v>154.0026</v>
+      </c>
+      <c r="L73">
+        <v>-5.0025329999999997</v>
+      </c>
+      <c r="M73" t="s">
+        <v>13</v>
+      </c>
+      <c r="N73">
+        <v>290.99970000000002</v>
+      </c>
+      <c r="O73">
+        <v>290.44670000000002</v>
+      </c>
+      <c r="P73">
+        <v>0.55291749999999995</v>
+      </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -4214,8 +8188,32 @@
       <c r="H74">
         <v>-2.6146280000000002</v>
       </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74">
+        <v>157</v>
+      </c>
+      <c r="K74">
+        <v>160.0307</v>
+      </c>
+      <c r="L74">
+        <v>-3.0307620000000002</v>
+      </c>
+      <c r="M74" t="s">
+        <v>13</v>
+      </c>
+      <c r="N74">
+        <v>159</v>
+      </c>
+      <c r="O74">
+        <v>158.8099</v>
+      </c>
+      <c r="P74">
+        <v>0.19007869999999999</v>
+      </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -4240,8 +8238,32 @@
       <c r="H75">
         <v>-1.0741579999999999</v>
       </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75">
+        <v>289</v>
+      </c>
+      <c r="K75">
+        <v>280.08730000000003</v>
+      </c>
+      <c r="L75">
+        <v>8.9126890000000003</v>
+      </c>
+      <c r="M75" t="s">
+        <v>13</v>
+      </c>
+      <c r="N75">
+        <v>247</v>
+      </c>
+      <c r="O75">
+        <v>247.1207</v>
+      </c>
+      <c r="P75">
+        <v>-0.120697</v>
+      </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -4266,8 +8288,32 @@
       <c r="H76">
         <v>-0.65913010000000005</v>
       </c>
+      <c r="I76" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76">
+        <v>343</v>
+      </c>
+      <c r="K76">
+        <v>335.59589999999997</v>
+      </c>
+      <c r="L76">
+        <v>7.4041439999999996</v>
+      </c>
+      <c r="M76" t="s">
+        <v>13</v>
+      </c>
+      <c r="N76">
+        <v>36.999980000000001</v>
+      </c>
+      <c r="O76">
+        <v>35.118400000000001</v>
+      </c>
+      <c r="P76">
+        <v>1.88158</v>
+      </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -4292,8 +8338,32 @@
       <c r="H77">
         <v>-2.3515929999999998</v>
       </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77">
+        <v>65.000039999999998</v>
+      </c>
+      <c r="K77">
+        <v>57.500509999999998</v>
+      </c>
+      <c r="L77">
+        <v>7.4995229999999999</v>
+      </c>
+      <c r="M77" t="s">
+        <v>13</v>
+      </c>
+      <c r="N77">
+        <v>91.000020000000006</v>
+      </c>
+      <c r="O77">
+        <v>90.425420000000003</v>
+      </c>
+      <c r="P77">
+        <v>0.57459260000000001</v>
+      </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -4318,8 +8388,32 @@
       <c r="H78">
         <v>-2.2224729999999999</v>
       </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78">
+        <v>157</v>
+      </c>
+      <c r="K78">
+        <v>159.69649999999999</v>
+      </c>
+      <c r="L78">
+        <v>-2.6965180000000002</v>
+      </c>
+      <c r="M78" t="s">
+        <v>13</v>
+      </c>
+      <c r="N78">
+        <v>181</v>
+      </c>
+      <c r="O78">
+        <v>180.05359999999999</v>
+      </c>
+      <c r="P78">
+        <v>0.9464264</v>
+      </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -4344,8 +8438,32 @@
       <c r="H79">
         <v>-0.71999740000000001</v>
       </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79">
+        <v>267</v>
+      </c>
+      <c r="K79">
+        <v>258.19619999999998</v>
+      </c>
+      <c r="L79">
+        <v>8.8038329999999991</v>
+      </c>
+      <c r="M79" t="s">
+        <v>13</v>
+      </c>
+      <c r="N79">
+        <v>143</v>
+      </c>
+      <c r="O79">
+        <v>144.0241</v>
+      </c>
+      <c r="P79">
+        <v>-1.0240629999999999</v>
+      </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -4370,8 +8488,32 @@
       <c r="H80">
         <v>-1.721344</v>
       </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80">
+        <v>25.000070000000001</v>
+      </c>
+      <c r="K80">
+        <v>26.868870000000001</v>
+      </c>
+      <c r="L80">
+        <v>-1.868805</v>
+      </c>
+      <c r="M80" t="s">
+        <v>13</v>
+      </c>
+      <c r="N80">
+        <v>353</v>
+      </c>
+      <c r="O80">
+        <v>352.27530000000002</v>
+      </c>
+      <c r="P80">
+        <v>0.72473140000000003</v>
+      </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -4396,8 +8538,32 @@
       <c r="H81">
         <v>-1.787674</v>
       </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81">
+        <v>283</v>
+      </c>
+      <c r="K81">
+        <v>276.68180000000001</v>
+      </c>
+      <c r="L81">
+        <v>6.3181760000000002</v>
+      </c>
+      <c r="M81" t="s">
+        <v>13</v>
+      </c>
+      <c r="N81">
+        <v>225</v>
+      </c>
+      <c r="O81">
+        <v>224.10429999999999</v>
+      </c>
+      <c r="P81">
+        <v>0.89570620000000001</v>
+      </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -4422,8 +8588,32 @@
       <c r="H82">
         <v>-0.53524780000000005</v>
       </c>
+      <c r="I82" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82">
+        <v>255</v>
+      </c>
+      <c r="K82">
+        <v>245.4888</v>
+      </c>
+      <c r="L82">
+        <v>9.5112000000000005</v>
+      </c>
+      <c r="M82" t="s">
+        <v>13</v>
+      </c>
+      <c r="N82">
+        <v>313.00009999999997</v>
+      </c>
+      <c r="O82">
+        <v>314.6123</v>
+      </c>
+      <c r="P82">
+        <v>-1.612244</v>
+      </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -4448,8 +8638,32 @@
       <c r="H83">
         <v>12.232189999999999</v>
       </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83">
+        <v>344.99990000000003</v>
+      </c>
+      <c r="K83">
+        <v>345.99029999999999</v>
+      </c>
+      <c r="L83">
+        <v>-0.990448</v>
+      </c>
+      <c r="M83" t="s">
+        <v>14</v>
+      </c>
+      <c r="N83">
+        <v>287</v>
+      </c>
+      <c r="O83">
+        <v>287.84289999999999</v>
+      </c>
+      <c r="P83">
+        <v>-0.84289550000000002</v>
+      </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -4474,8 +8688,32 @@
       <c r="H84">
         <v>12.308299999999999</v>
       </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84">
+        <v>107</v>
+      </c>
+      <c r="K84">
+        <v>108.8974</v>
+      </c>
+      <c r="L84">
+        <v>-1.8974610000000001</v>
+      </c>
+      <c r="M84" t="s">
+        <v>14</v>
+      </c>
+      <c r="N84">
+        <v>249</v>
+      </c>
+      <c r="O84">
+        <v>248.65719999999999</v>
+      </c>
+      <c r="P84">
+        <v>0.34277340000000001</v>
+      </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -4500,8 +8738,32 @@
       <c r="H85">
         <v>12.117979999999999</v>
       </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85">
+        <v>238.99979999999999</v>
+      </c>
+      <c r="K85">
+        <v>232.39769999999999</v>
+      </c>
+      <c r="L85">
+        <v>6.602112</v>
+      </c>
+      <c r="M85" t="s">
+        <v>14</v>
+      </c>
+      <c r="N85">
+        <v>44.999949999999998</v>
+      </c>
+      <c r="O85">
+        <v>45.616950000000003</v>
+      </c>
+      <c r="P85">
+        <v>-0.61700440000000001</v>
+      </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -4526,8 +8788,32 @@
       <c r="H86">
         <v>11.45825</v>
       </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86">
+        <v>219.0001</v>
+      </c>
+      <c r="K86">
+        <v>220.97829999999999</v>
+      </c>
+      <c r="L86">
+        <v>-1.978119</v>
+      </c>
+      <c r="M86" t="s">
+        <v>14</v>
+      </c>
+      <c r="N86">
+        <v>118.9999</v>
+      </c>
+      <c r="O86">
+        <v>119.1259</v>
+      </c>
+      <c r="P86">
+        <v>-0.12597659999999999</v>
+      </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -4552,8 +8838,32 @@
       <c r="H87">
         <v>12.78626</v>
       </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87">
+        <v>286.99990000000003</v>
+      </c>
+      <c r="K87">
+        <v>288.91489999999999</v>
+      </c>
+      <c r="L87">
+        <v>-1.915009</v>
+      </c>
+      <c r="M87" t="s">
+        <v>14</v>
+      </c>
+      <c r="N87">
+        <v>275</v>
+      </c>
+      <c r="O87">
+        <v>274.11329999999998</v>
+      </c>
+      <c r="P87">
+        <v>0.88665769999999999</v>
+      </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -4578,8 +8888,32 @@
       <c r="H88">
         <v>10.30644</v>
       </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88">
+        <v>101</v>
+      </c>
+      <c r="K88">
+        <v>95.020719999999997</v>
+      </c>
+      <c r="L88">
+        <v>5.979317</v>
+      </c>
+      <c r="M88" t="s">
+        <v>14</v>
+      </c>
+      <c r="N88">
+        <v>123.00020000000001</v>
+      </c>
+      <c r="O88">
+        <v>122.9123</v>
+      </c>
+      <c r="P88">
+        <v>8.791351E-2</v>
+      </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -4604,8 +8938,32 @@
       <c r="H89">
         <v>12.383789999999999</v>
       </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89">
+        <v>313</v>
+      </c>
+      <c r="K89">
+        <v>314.67770000000002</v>
+      </c>
+      <c r="L89">
+        <v>-1.677673</v>
+      </c>
+      <c r="M89" t="s">
+        <v>14</v>
+      </c>
+      <c r="N89">
+        <v>56.999830000000003</v>
+      </c>
+      <c r="O89">
+        <v>57.916919999999998</v>
+      </c>
+      <c r="P89">
+        <v>-0.9170914</v>
+      </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -4630,8 +8988,32 @@
       <c r="H90">
         <v>11.863379999999999</v>
       </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90">
+        <v>238.9999</v>
+      </c>
+      <c r="K90">
+        <v>239.88759999999999</v>
+      </c>
+      <c r="L90">
+        <v>-0.88777159999999999</v>
+      </c>
+      <c r="M90" t="s">
+        <v>14</v>
+      </c>
+      <c r="N90">
+        <v>303.00020000000001</v>
+      </c>
+      <c r="O90">
+        <v>302.06569999999999</v>
+      </c>
+      <c r="P90">
+        <v>0.93450929999999999</v>
+      </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -4656,8 +9038,32 @@
       <c r="H91">
         <v>10.591900000000001</v>
       </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91">
+        <v>137</v>
+      </c>
+      <c r="K91">
+        <v>138.42490000000001</v>
+      </c>
+      <c r="L91">
+        <v>-1.4248810000000001</v>
+      </c>
+      <c r="M91" t="s">
+        <v>14</v>
+      </c>
+      <c r="N91">
+        <v>3.0000049999999998</v>
+      </c>
+      <c r="O91">
+        <v>2.589512</v>
+      </c>
+      <c r="P91">
+        <v>0.4104931</v>
+      </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -4682,8 +9088,36 @@
       <c r="H92">
         <v>13.098789999999999</v>
       </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92">
+        <v>5.0001069999999999</v>
+      </c>
+      <c r="K92">
+        <v>8.4184470000000005</v>
+      </c>
+      <c r="L92">
+        <v>-3.418339</v>
+      </c>
+      <c r="M92" t="s">
+        <v>14</v>
+      </c>
+      <c r="N92">
+        <v>5.0000080000000002</v>
+      </c>
+      <c r="O92">
+        <v>4.3972790000000002</v>
+      </c>
+      <c r="P92">
+        <v>0.60272879999999995</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
